--- a/SecondLab/Класс признаков.xlsx
+++ b/SecondLab/Класс признаков.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Class</t>
   </si>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>8.0622577482985491</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>7.6157731058639087</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2.2360679774997898</v>
+        <v>7.2111025509279782</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>3.16227766016838</v>
+        <v>6.7082039324993694</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4.2426406871192848</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9.2195444572928871</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1.4142135623730949</v>
+        <v>9.4339811320566032</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8.6023252670426267</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>1.4142135623730949</v>
+        <v>7.810249675906654</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>2.2360679774997898</v>
+        <v>8.6023252670426267</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>3.16227766016838</v>
+        <v>6.4031242374328494</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>4.1231056256176606</v>
+        <v>7.6157731058639087</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>7.810249675906654</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,15 +631,26 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>3.16227766016838</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>8.0622577482985491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
       <c r="B17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SecondLab/Класс признаков.xlsx
+++ b/SecondLab/Класс признаков.xlsx
@@ -1,68 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Machine learning\MachineLearningMethod\SecondLab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Knot</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>third</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,257 +420,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Knot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.16227766016838</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.23606797749979</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.414213562373095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D7" t="n">
+        <v>4.47213595499958</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.605551275463989</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.123105625617661</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.16227766016838</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.23606797749979</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="D12" t="n">
+        <v>3.16227766016838</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.16227766016838</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>8.0622577482985491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D15" t="n">
+        <v>2.23606797749979</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>7.6157731058639087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>7.2111025509279782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>6.7082039324993694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>4.2426406871192848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>9.2195444572928871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>9.4339811320566032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>8.6023252670426267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>7.810249675906654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>8.6023252670426267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>6.4031242374328494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>7.6157731058639087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>7.810249675906654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>8.0622577482985491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
